--- a/2025/11/2025-11-12/12_fixtures.xlsx
+++ b/2025/11/2025-11-12/12_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,118 +636,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Wed Nov 12</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CR Belouizdad  - Olympique Akbou: 22:00</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CR Belouizdad</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Wed Nov 12</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Tunisia  - Mauritania: 16:30</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tunisia</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Wed Nov 12</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Adhyaksa FC Banten  - Persiraja Banda Aceh: 07:30</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Adhyaksa FC Banten</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Wed Nov 12</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Atomic Ngomé de Ntsoudjini  - Football Club de Hantsindzi: 13:00</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Atomic Ngomé de Ntsoudjini</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>28%</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
